--- a/biology/Botanique/Solenopsis_bicolor/Solenopsis_bicolor.xlsx
+++ b/biology/Botanique/Solenopsis_bicolor/Solenopsis_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solenopsis bicolor est une espèce de plantes annuelles de la famille des Campanulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">≡ Laurentia michelii var. bicolor Batt. (1917) : Basionyme[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">≡ Laurentia michelii var. bicolor Batt. (1917) : Basionyme
 ≡ Laurentia bicolor (Batt.) Maire &amp; Steph. (1931)
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sauf la citation extraite du protologue, la description est tirée de Quezel &amp; Santa, 1963, p. 896.
 Port général : plante érigée à tige épaisse haute de 15-30 cm.
@@ -578,11 +594,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse dans les daya et les ruisseaux.
-En Algérie, elle est assez commune en Numidie et rare au Cap Sigli (Grande Kabylie)[2].
-En Tunisie, elle est présente dans des zones tourbeuses des Mogods (notamment à Majen Chitane et à Garâa Sejnane) et en Kroumirie (Dar Fatma, vallon du Merdj, etc.)[3].
+En Algérie, elle est assez commune en Numidie et rare au Cap Sigli (Grande Kabylie).
+En Tunisie, elle est présente dans des zones tourbeuses des Mogods (notamment à Majen Chitane et à Garâa Sejnane) et en Kroumirie (Dar Fatma, vallon du Merdj, etc.).
 </t>
         </is>
       </c>
